--- a/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GLUT_P30_rrvgo_enrichr.xlsx
+++ b/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GLUT_P30_rrvgo_enrichr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">Gene Ontology</t>
   </si>
@@ -35,310 +35,247 @@
     <t xml:space="preserve">RNA binding</t>
   </si>
   <si>
+    <t xml:space="preserve">NADH dehydrogenase (ubiquinone) activity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biological Process</t>
   </si>
   <si>
+    <t xml:space="preserve">respiratory electron transport chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein ubiquitination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golgi apparatus subcompartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADH dehydrogenase complex assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semaphorin-plexin signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of CREB transcription factor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lytic vacuole membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial translational elongation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK cascade</t>
+  </si>
+  <si>
     <t xml:space="preserve">ubiquitin-dependent protein catabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">respiratory electron transport chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translational termination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lytic vacuole membrane</t>
+    <t xml:space="preserve">disordered domain specific binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin-like protein conjugating enzyme binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of establishment of planar polarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerebral cortex cell migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuropilin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platelet degranulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative chemotaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of apoptotic signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axon guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embryonic skeletal system morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cristae formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of protein autophosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filopodium membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of canonical Wnt signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein localization to Golgi apparatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adenylate cyclase-inhibiting G protein-coupled receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of nitrogen compound metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of mRNA 3'-end processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of mitotic cell cycle phase transition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5'-3' RNA polymerase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein localization to membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microtubule organizing center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylinositol metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular amine metabolic process</t>
   </si>
   <si>
     <t xml:space="preserve">purine ribonucleoside triphosphate binding</t>
   </si>
   <si>
-    <t xml:space="preserve">negative regulation of canonical Wnt signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of neuron projection development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial translational elongation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular ketone metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular amine metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of establishment of planar polarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interleukin-1-mediated signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microtubule organizing center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADH dehydrogenase (ubiquinone) activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein dephosphorylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ras protein signal transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axon guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epidermal growth factor receptor signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cristae formation</t>
+    <t xml:space="preserve">homotypic cell-cell adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal recognition particle</t>
   </si>
   <si>
     <t xml:space="preserve">transcription coactivator activity</t>
   </si>
   <si>
+    <t xml:space="preserve">oligosaccharide biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transmembrane receptor protein tyrosine phosphatase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin-protein transferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of receptor internalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sialyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnesium ion binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tRNA catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-secretase complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium:sodium antiporter activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prenyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to hypoxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of transcription by RNA polymerase I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear receptor binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation factor activity, RNA binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vesicle coat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry of bacterium into host cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMO binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERAD pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to platelet-derived growth factor stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amino acid binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-tubulin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of stem cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chondroitin sulfate catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transmitter-gated ion channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA polymerase II, holoenzyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intramolecular oxidoreductase activity, transposing S-S bonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein lipoylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amyloid precursor protein catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mismatched DNA binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein stabilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribosomal small subunit binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein heterodimerization activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of fibroblast proliferation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear localization sequence binding</t>
+  </si>
+  <si>
     <t xml:space="preserve">polyubiquitin modification-dependent protein binding</t>
   </si>
   <si>
-    <t xml:space="preserve">positive regulation of CREB transcription factor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERAD pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of nitrogen compound metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein stabilization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">histone mRNA metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein modification by small protein removal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoplasmic reticulum to Golgi vesicle-mediated transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation factor activity, RNA binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methylosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of mitotic cell cycle phase transition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoplasmic vesicle lumen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein localization to cell periphery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cellular process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of dendrite extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphatidate phosphatase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-3 adaptor complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha-N-acetylneuraminate alpha-2,8-sialyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endosome to lysosome transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of telomere maintenance via telomerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golgi apparatus subcompartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of neuron differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of amyloid-beta clearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of establishment of protein localization to telomere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribonucleoside triphosphate phosphatase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncRNA processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma-tubulin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adenylate cyclase-inhibiting G protein-coupled receptor signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuron migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to ionizing radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aminoacyl-tRNA ligase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">syntaxin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquitin-specific protease binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative chemotaxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2 snRNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entry of bacterium into host cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of amyloid fibril formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coronary vasculature morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnesium ion binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homotypic cell-cell adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial small ribosomal subunit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquitin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycosphingolipid biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein homodimerization activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear localization sequence binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTPase inhibitor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disordered domain specific binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of amyloid-beta formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of telomerase RNA localization to Cajal body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sterol biosynthetic process</t>
+    <t xml:space="preserve">regulation of hematopoietic stem cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cAMP-dependent protein kinase inhibitor activity</t>
   </si>
   <si>
     <t xml:space="preserve">lysosome localization</t>
   </si>
   <si>
-    <t xml:space="preserve">perinuclear region of cytoplasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viral process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuropilin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribosomal small subunit binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transmembrane receptor protein serine/threonine kinase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquitin-like protein peptidase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeletal system morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glutamate receptor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carboxy-lyase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventricular compact myocardium morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of glycogen biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium:sodium antiporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquinone binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hepaticobiliary system development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cadherin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basal RNA polymerase II transcription machinery binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amino acid binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-catenin-TCF complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of membrane protein ectodomain proteolysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insulin-like growth factor II binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoplasmic reticulum-Golgi intermediate compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antigen processing and presentation of exogenous peptide antigen via MHC class I, TAP-dependent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyaluronic acid binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'de novo' post-translational protein folding</t>
+    <t xml:space="preserve">ruffle organization</t>
   </si>
 </sst>
 </file>
@@ -689,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>9.92306392636213</v>
+        <v>8.12735122508155</v>
       </c>
     </row>
     <row r="3">
@@ -700,40 +637,40 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>9.20164934633658</v>
+        <v>6.00715738845143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="n">
-        <v>6.64513705873671</v>
+        <v>4.91243662307738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>5.4927971570304</v>
+        <v>4.69928686133191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>4.80790558104427</v>
+        <v>4.34163917977802</v>
       </c>
     </row>
     <row r="7">
@@ -744,370 +681,370 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>4.58423958792588</v>
+        <v>4.10416042623376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>4.52499819880677</v>
+        <v>3.94157462959293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.40645505499549</v>
+        <v>3.90213531208636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>4.31166213653065</v>
+        <v>3.82968219259429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>4.25477865393024</v>
+        <v>3.76164073874971</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>4.14783407888496</v>
+        <v>3.72245914434687</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0355438824457</v>
+        <v>3.71695394572304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>4.00035972753376</v>
+        <v>3.60208607005819</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>3.98339751450112</v>
+        <v>3.51015654032746</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>3.96182264107192</v>
+        <v>3.25099962917214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>3.90803429345475</v>
+        <v>3.1548116446028</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>3.76255858373066</v>
+        <v>3.12717391344619</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>3.54618806615138</v>
+        <v>3.09160912456004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>3.50503431602405</v>
+        <v>3.07430137050175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>3.46451407559243</v>
+        <v>2.87850267026176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>3.37907440084912</v>
+        <v>2.85259849644132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>3.34110031996683</v>
+        <v>2.82848005346363</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>3.26248422684257</v>
+        <v>2.79567340103883</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>3.18257336362462</v>
+        <v>2.77999380874845</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>3.18183193093356</v>
+        <v>2.77999380874845</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>3.12534411663959</v>
+        <v>2.73485336313584</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>3.1163288104426</v>
+        <v>2.64801250197306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>3.10876524243012</v>
+        <v>2.58852899430707</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>3.10200983492051</v>
+        <v>2.53964413664063</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>3.08178084784884</v>
+        <v>2.52469692991974</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>3.03488507079055</v>
+        <v>2.49159132508151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>3.02301320295544</v>
+        <v>2.48608888501868</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>3.00124405337481</v>
+        <v>2.48608888501868</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>2.98166727530674</v>
+        <v>2.42203767900457</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>2.98023665691304</v>
+        <v>2.41814647282217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>2.95960609626795</v>
+        <v>2.40184981886677</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>2.91701185845805</v>
+        <v>2.37085820075421</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>2.79568708547858</v>
+        <v>2.34107791515127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>2.7902029371527</v>
+        <v>2.34066283477267</v>
       </c>
     </row>
     <row r="41">
@@ -1118,18 +1055,18 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>2.75631465535571</v>
+        <v>2.32390588469122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>2.71920608064802</v>
+        <v>2.28337970343363</v>
       </c>
     </row>
     <row r="43">
@@ -1140,7 +1077,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>2.69461408136425</v>
+        <v>2.26239677693506</v>
       </c>
     </row>
     <row r="44">
@@ -1151,106 +1088,106 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>2.69461408136425</v>
+        <v>2.18441277777138</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>2.6941152422504</v>
+        <v>2.14683840635045</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>2.68704559960123</v>
+        <v>2.10785765515635</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>2.66810597458615</v>
+        <v>2.08492950849376</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>2.55818117515058</v>
+        <v>2.08106321244899</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5478936103361</v>
+        <v>2.08106321244899</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>2.5478936103361</v>
+        <v>2.06875153845959</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>2.54320231228562</v>
+        <v>1.94089340353106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>2.53770346929684</v>
+        <v>1.94089340353106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="n">
-        <v>2.49897547118018</v>
+        <v>1.94089340353106</v>
       </c>
     </row>
     <row r="54">
@@ -1261,40 +1198,40 @@
         <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>2.46506832940544</v>
+        <v>1.90707920502518</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
       <c r="C55" t="n">
-        <v>2.42474699853643</v>
+        <v>1.88985185698818</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>2.41466757800767</v>
+        <v>1.85885765413651</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="n">
-        <v>2.38122036412988</v>
+        <v>1.85885765413651</v>
       </c>
     </row>
     <row r="58">
@@ -1305,161 +1242,161 @@
         <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>2.32489242762923</v>
+        <v>1.84384160597745</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>2.31192245411874</v>
+        <v>1.766407088592</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
       <c r="C60" t="n">
-        <v>2.21709406076724</v>
+        <v>1.76222978691216</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61" t="n">
-        <v>2.20017136807775</v>
+        <v>1.76222978691216</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="n">
-        <v>2.18981359798903</v>
+        <v>1.75010280735458</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="n">
-        <v>2.13477737263086</v>
+        <v>1.727363034444</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64" t="n">
-        <v>2.10687186833318</v>
+        <v>1.70653225656291</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="n">
-        <v>2.10687186833318</v>
+        <v>1.64952958018693</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
       <c r="C66" t="n">
-        <v>2.10629328291119</v>
+        <v>1.63634158259991</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67" t="n">
-        <v>2.09528991598748</v>
+        <v>1.63365436399622</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>2.09201057753947</v>
+        <v>1.62305387411127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="n">
-        <v>2.08417013976002</v>
+        <v>1.56009236694405</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
       </c>
       <c r="C70" t="n">
-        <v>2.0710616425819</v>
+        <v>1.55676253674159</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
       </c>
       <c r="C71" t="n">
-        <v>2.04108231316094</v>
+        <v>1.55259789976827</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
       </c>
       <c r="C72" t="n">
-        <v>1.99024217296154</v>
+        <v>1.55259789976827</v>
       </c>
     </row>
     <row r="73">
@@ -1470,84 +1407,84 @@
         <v>77</v>
       </c>
       <c r="C73" t="n">
-        <v>1.96580755141628</v>
+        <v>1.55259789976827</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
       </c>
       <c r="C74" t="n">
-        <v>1.95338815542197</v>
+        <v>1.54417070400249</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>1.93787121544894</v>
+        <v>1.51853354954059</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
       </c>
       <c r="C76" t="n">
-        <v>1.93787121544894</v>
+        <v>1.51164524761118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>81</v>
       </c>
       <c r="C77" t="n">
-        <v>1.93220901055045</v>
+        <v>1.47138990739632</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="n">
-        <v>1.89433174988171</v>
+        <v>1.47138990739632</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
       </c>
       <c r="C79" t="n">
-        <v>1.84440454047233</v>
+        <v>1.47051126447796</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
       </c>
       <c r="C80" t="n">
-        <v>1.83966958278246</v>
+        <v>1.4485782654126</v>
       </c>
     </row>
     <row r="81">
@@ -1558,260 +1495,29 @@
         <v>85</v>
       </c>
       <c r="C81" t="n">
-        <v>1.81583645450334</v>
+        <v>1.40570638344377</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>86</v>
       </c>
       <c r="C82" t="n">
-        <v>1.81565454717745</v>
+        <v>1.40352440815103</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
       <c r="C83" t="n">
-        <v>1.81565454717745</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.78890154745852</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.76389097168874</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.71825527043307</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.70358225262061</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.65520812714036</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.65474594465061</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.65474594465061</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.65474594465061</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.65474594465061</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.59997183238837</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.58648067619905</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.56814263955718</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.56685544115744</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.55394142635614</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.44983000495266</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.44936809749513</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.44936809749513</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.43636571651877</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.39890684256902</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.34959942546489</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.33694680243227</v>
+        <v>1.32054897177781</v>
       </c>
     </row>
   </sheetData>
